--- a/Automation-Framework-BookMyShow/ExecutionFiles/Run/BookMyShow.xlsx
+++ b/Automation-Framework-BookMyShow/ExecutionFiles/Run/BookMyShow.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16416" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16416" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalVariables" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="213">
   <si>
     <t>ProjectName</t>
   </si>
@@ -983,11 +983,36 @@
   <si>
     <t>fasiddiqh82@gmail.com</t>
   </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Kannada</t>
+  </si>
+  <si>
+    <t>Telugu</t>
+  </si>
+  <si>
+    <t>Hindi</t>
+  </si>
+  <si>
+    <t>English 7D</t>
+  </si>
+  <si>
+    <t>Malayalam</t>
+  </si>
+  <si>
+    <t>Tamil</t>
+  </si>
+  <si>
+    <t>Japanese</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1528,10 +1553,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" customWidth="1"/>
-    <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="37.44140625" customWidth="1"/>
-    <col min="4" max="4" width="83.6640625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="13.33203125" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="24.0" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="37.44140625" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="83.6640625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -1633,20 +1658,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" style="9" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="49.5546875" style="17" customWidth="1"/>
-    <col min="6" max="6" width="49.5546875" style="10" customWidth="1"/>
-    <col min="7" max="7" width="49.5546875" style="34" customWidth="1"/>
-    <col min="8" max="8" width="45.88671875" style="9" customWidth="1"/>
-    <col min="9" max="9" width="44.33203125" style="34" customWidth="1"/>
-    <col min="10" max="10" width="42.109375" style="34" customWidth="1"/>
-    <col min="11" max="11" width="19.88671875" style="17" customWidth="1"/>
-    <col min="12" max="12" width="24.109375" style="9" customWidth="1"/>
-    <col min="13" max="13" width="14.88671875" customWidth="1"/>
-    <col min="14" max="14" width="18.88671875" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="9" width="12.6640625" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="9" width="12.88671875" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="16.0" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" style="9" width="14.33203125" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" style="17" width="49.5546875" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" style="10" width="49.5546875" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" style="34" width="49.5546875" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" style="9" width="45.88671875" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" style="34" width="44.33203125" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" style="34" width="42.109375" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" style="17" width="19.88671875" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" style="9" width="24.109375" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" width="14.88671875" collapsed="false"/>
+    <col min="14" max="14" customWidth="true" width="18.88671875" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
@@ -2604,17 +2629,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="13.6640625" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="48" customWidth="1"/>
-    <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="20.5546875" customWidth="1"/>
+    <col min="1" max="2" customWidth="true" width="13.6640625" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" style="9" width="19.6640625" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="48.0" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="18.0" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="20.5546875" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -2737,11 +2762,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="50" style="9" customWidth="1"/>
-    <col min="2" max="2" width="21.88671875" style="9" customWidth="1"/>
-    <col min="3" max="3" width="17.5546875" style="9" customWidth="1"/>
-    <col min="4" max="4" width="47.44140625" style="10" customWidth="1"/>
-    <col min="5" max="5" width="77.109375" style="34" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="9" width="50.0" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="9" width="21.88671875" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" style="9" width="17.5546875" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" style="10" width="47.44140625" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" style="34" width="77.109375" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -2895,12 +2920,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.109375" style="9" customWidth="1"/>
-    <col min="2" max="2" width="15.5546875" customWidth="1"/>
-    <col min="3" max="3" width="76.6640625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="31.6640625" customWidth="1"/>
-    <col min="5" max="5" width="40.109375" style="9" customWidth="1"/>
-    <col min="6" max="6" width="29.44140625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="9" width="10.109375" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="15.5546875" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" style="10" width="76.6640625" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="31.6640625" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" style="9" width="40.109375" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="29.44140625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:61" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3036,14 +3061,16 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.88671875" customWidth="1"/>
-    <col min="2" max="2" width="40" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="27.88671875" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="40.0" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -3059,6 +3086,46 @@
         <v>203</v>
       </c>
     </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>212</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Automation-Framework-BookMyShow/ExecutionFiles/Run/BookMyShow.xlsx
+++ b/Automation-Framework-BookMyShow/ExecutionFiles/Run/BookMyShow.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="214">
   <si>
     <t>ProjectName</t>
   </si>
@@ -1007,12 +1007,14 @@
   <si>
     <t>Japanese</t>
   </si>
+  <si>
+    <t>Price</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1553,10 +1555,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="13.33203125" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="24.0" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="37.44140625" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="83.6640625" collapsed="false"/>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="3" max="3" width="37.44140625" customWidth="1"/>
+    <col min="4" max="4" width="83.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -1658,20 +1660,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="9" width="12.6640625" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="9" width="12.88671875" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="16.0" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" style="9" width="14.33203125" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" style="17" width="49.5546875" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" style="10" width="49.5546875" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" style="34" width="49.5546875" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" style="9" width="45.88671875" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" style="34" width="44.33203125" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" style="34" width="42.109375" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" style="17" width="19.88671875" collapsed="false"/>
-    <col min="12" max="12" customWidth="true" style="9" width="24.109375" collapsed="false"/>
-    <col min="13" max="13" customWidth="true" width="14.88671875" collapsed="false"/>
-    <col min="14" max="14" customWidth="true" width="18.88671875" collapsed="false"/>
+    <col min="1" max="1" width="12.6640625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="49.5546875" style="17" customWidth="1"/>
+    <col min="6" max="6" width="49.5546875" style="10" customWidth="1"/>
+    <col min="7" max="7" width="49.5546875" style="34" customWidth="1"/>
+    <col min="8" max="8" width="45.88671875" style="9" customWidth="1"/>
+    <col min="9" max="9" width="44.33203125" style="34" customWidth="1"/>
+    <col min="10" max="10" width="42.109375" style="34" customWidth="1"/>
+    <col min="11" max="11" width="19.88671875" style="17" customWidth="1"/>
+    <col min="12" max="12" width="24.109375" style="9" customWidth="1"/>
+    <col min="13" max="13" width="14.88671875" customWidth="1"/>
+    <col min="14" max="14" width="18.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
@@ -2635,11 +2637,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" customWidth="true" width="13.6640625" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" style="9" width="19.6640625" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="48.0" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="18.0" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="20.5546875" collapsed="false"/>
+    <col min="1" max="2" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="48" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="6" max="6" width="20.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -2762,11 +2764,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="9" width="50.0" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="9" width="21.88671875" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" style="9" width="17.5546875" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" style="10" width="47.44140625" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" style="34" width="77.109375" collapsed="false"/>
+    <col min="1" max="1" width="50" style="9" customWidth="1"/>
+    <col min="2" max="2" width="21.88671875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" style="9" customWidth="1"/>
+    <col min="4" max="4" width="47.44140625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="77.109375" style="34" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -2920,12 +2922,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="9" width="10.109375" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="15.5546875" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" style="10" width="76.6640625" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="31.6640625" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" style="9" width="40.109375" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="29.44140625" collapsed="false"/>
+    <col min="1" max="1" width="10.109375" style="9" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" customWidth="1"/>
+    <col min="3" max="3" width="76.6640625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="31.6640625" customWidth="1"/>
+    <col min="5" max="5" width="40.109375" style="9" customWidth="1"/>
+    <col min="6" max="6" width="29.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:61" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3061,24 +3063,28 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="27.88671875" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="40.0" collapsed="false"/>
+    <col min="1" max="1" width="27.88671875" customWidth="1"/>
+    <col min="2" max="2" width="40" customWidth="1"/>
+    <col min="3" max="3" width="19.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="38" t="s">
         <v>201</v>
       </c>
       <c r="B1" s="38" t="s">
         <v>202</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
@@ -3086,42 +3092,42 @@
         <v>203</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>212</v>
       </c>

--- a/Automation-Framework-BookMyShow/ExecutionFiles/Run/BookMyShow.xlsx
+++ b/Automation-Framework-BookMyShow/ExecutionFiles/Run/BookMyShow.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16416" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16416" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalVariables" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="217">
   <si>
     <t>ProjectName</t>
   </si>
@@ -222,20 +222,6 @@
 5.Sports button is clicked.</t>
   </si>
   <si>
-    <t>To verify if the user is unable to click the sports button on the homepage of bookmyshow.com</t>
-  </si>
-  <si>
-    <t>testIfUserIsUnableToClickOnSportsButton_20004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.Browser is opened
-2.Go to bookmyshow.com website.
-3.city button is selected.
-4.Required city is  selected.
-5.Sports button is  clicked.
-</t>
-  </si>
-  <si>
     <t>S002</t>
   </si>
   <si>
@@ -269,29 +255,7 @@
 6.This Weekend option is selected from the filter section.</t>
   </si>
   <si>
-    <t>To check whether user is unable to click on This Weekend option in the filter section on the sports field.</t>
-  </si>
-  <si>
     <t>user is on Sports page in bookmyshow</t>
-  </si>
-  <si>
-    <t>testIfThisWeekendButtonIsInactive_20006</t>
-  </si>
-  <si>
-    <t>1.Browser should be  opened
-2..Go to bookmyshow.com website.
-3.city button should be selected.
-4.Required city is to selected.
-5.Sports button is to clicked.
-6.This Weekend option should be selected from the filter section.</t>
-  </si>
-  <si>
-    <t>1.Browser is opened
-2.Go to bookmyshow.com website.
-3.city button is selected.
-4.Required city is selected.
-5.Sports button is  clicked.
-6.This Weekend option is selected from the filter section.</t>
   </si>
   <si>
     <t>To check if user is able view upcoming sports events after clicking on This weekened in Filters Section</t>
@@ -304,9 +268,6 @@
 5. select sports button on the homepage.
 6.Click on This Weekend option in the filter section.
 7.Dispaly all the sports activies present in this weekend.</t>
-  </si>
-  <si>
-    <t>verifyIfTheListOfEventsAreDisplayed_20007</t>
   </si>
   <si>
     <t>1.Browser should be  opened
@@ -340,9 +301,6 @@
 8.print all the sports activies with lowest charge.</t>
   </si>
   <si>
-    <t>getTheListOfAllSportsActivity_20008</t>
-  </si>
-  <si>
     <t>1.Browser should be  opened
 2.Go to bookmyshow.com website.
 3.city button should be selected.
@@ -376,9 +334,6 @@
 8.Scroll down  the webpage of sports to check the sports activities present.</t>
   </si>
   <si>
-    <t>testScrollDownFunctionality_20009</t>
-  </si>
-  <si>
     <t>1.Browser should be  opened
 2.Go to bookmyshow.com website.
 3.city button should be selected.
@@ -414,9 +369,6 @@
 4.click on the movies field on the homepage of bookmyshow.</t>
   </si>
   <si>
-    <t>testMoviesLinkButton_20010</t>
-  </si>
-  <si>
     <t>1.selected Browser should be opened.
 2.Go to bookmyshow.com website.
 3.Required city is to selected.
@@ -427,22 +379,6 @@
 2.Go to bookmyshow.com website.
 3.Required city is selected.
 4.Movies field on the homepage is selected.</t>
-  </si>
-  <si>
-    <t>To verify if user is unable to click on the movies from the
-bookmyshow website</t>
-  </si>
-  <si>
-    <t>user should be on the homepage of bookmyshow.com</t>
-  </si>
-  <si>
-    <t>checkIfMoviesButtonIsInactive_20011</t>
-  </si>
-  <si>
-    <t>1.selected Browser is opened.
-2.Go to bookmyshow.com website.
-3. Required city is selected
-4.Movies field on the homepage is not selected.</t>
   </si>
   <si>
     <t>S004</t>
@@ -461,9 +397,6 @@
 3.Select the required city.
 4.click on the movies field on the homepage of bookmyshow.
 5.click on the languages button on the homepage of the movies field.</t>
-  </si>
-  <si>
-    <t>testIfLanguagesButtonIsActive_20012</t>
   </si>
   <si>
     <t>1.selected Browser should be opened.
@@ -481,20 +414,6 @@
 </t>
   </si>
   <si>
-    <t>To verify if user is unable to click on the languages button in the filters Section .</t>
-  </si>
-  <si>
-    <t>checkIfLanguagesButtonIsInactive_20013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.selected Browser is opened.
-2.Go to bookmyshow.com website.
-3.Required city is selected.
-4.Movies field on the homepage is selected.
-5.languages button in the movies field is not selected.
-</t>
-  </si>
-  <si>
     <t>To Check if all the languages of particular city are displayed .</t>
   </si>
   <si>
@@ -504,9 +423,6 @@
 3.Select the required city.
 4.click on the movies field on the homepage of bookmyshow.
 5. All Languages are displayed for the particular city</t>
-  </si>
-  <si>
-    <t>verifyIfLanguagesAreDisplayed_20014</t>
   </si>
   <si>
     <t>1.selected Browser should be opened.
@@ -537,9 +453,6 @@
 6. Display all the languages for movies present in the particular city.</t>
   </si>
   <si>
-    <t>printListOfAllTheLanguages_20015</t>
-  </si>
-  <si>
     <t>1.selected Browser should be opened.
 2.Go to bookmyshow.com website .
 3.Required city is to be selected.
@@ -575,9 +488,6 @@
 </t>
   </si>
   <si>
-    <t>testSignInButton_20016</t>
-  </si>
-  <si>
     <t>1.Browser should be opened.
 2.Go to bookmyshow.com website.
 3. Required city is  selected.
@@ -607,9 +517,6 @@
 3.Select the required city.
 4.click on the sign in button.
 5. "Get Started" Window is Opened</t>
-  </si>
-  <si>
-    <t>verifyIfContinueWith GoogleIsPresent_20017</t>
   </si>
   <si>
     <t>1.Browser should be opened.
@@ -641,9 +548,6 @@
 5. "Get Started" Window is Opened
 6."Continue with Google" is clicked 
 7.A new Window "Sign in with Google" is opened</t>
-  </si>
-  <si>
-    <t>testContinueWithGoogleButton_20018</t>
   </si>
   <si>
     <t>1.Browser should be opened.
@@ -689,9 +593,6 @@
 9. Click on "Next" Button</t>
   </si>
   <si>
-    <t>signInWithValidEmail_20019</t>
-  </si>
-  <si>
     <t>Try to Sign In with valid Email and Incorrect Password</t>
   </si>
   <si>
@@ -706,9 +607,6 @@
 9. Click on "Next" Button
 10.Enter password in Password Input Field
 11.Click on "Next" Button</t>
-  </si>
-  <si>
-    <t>signInWithValidEmailAndInvalidPassword_20020</t>
   </si>
   <si>
     <t>1.Browser should be opened.
@@ -740,9 +638,6 @@
 7. A new Window "Sign in with Google" is opened
 8. Enter a invalid email in Email Input field
 9. Click on "Next" Button</t>
-  </si>
-  <si>
-    <t>signInWithInValidEmail_20021</t>
   </si>
   <si>
     <t xml:space="preserve">1.Browser should be opened.
@@ -787,9 +682,6 @@
 8..Click on "Next" Button</t>
   </si>
   <si>
-    <t>produceErrorWhileSignInWithoutEmail_20022</t>
-  </si>
-  <si>
     <t>1.Browser should be opened.
 2.Go to bookmyshow.com website.
 3.Select the required city.
@@ -818,9 +710,6 @@
 8. Enter a valid email in Email Input field
 9. Click on "Next" Button
 10.Wait for "Welcome "Page to Open .Click on "Next" Button</t>
-  </si>
-  <si>
-    <t>produceErrorWhileSignInWithoutpassword_20023</t>
   </si>
   <si>
     <t>1.Browser should be opened.
@@ -972,12 +861,6 @@
 20019,20020,20021,20022,20023</t>
   </si>
   <si>
-    <t>Name Of The Sport</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
     <t>List of Languages for Movies</t>
   </si>
   <si>
@@ -1008,7 +891,135 @@
     <t>Japanese</t>
   </si>
   <si>
-    <t>Price</t>
+    <t>Name of the Event</t>
+  </si>
+  <si>
+    <t>Price of the Event</t>
+  </si>
+  <si>
+    <t>CODM Solo Tournament by Big Band Sports</t>
+  </si>
+  <si>
+    <t>Indian Chess League 2020</t>
+  </si>
+  <si>
+    <t>Free Fire Solo And Squad (Bermuda)</t>
+  </si>
+  <si>
+    <t>Johnson Call Of Duty Mobile Tournament</t>
+  </si>
+  <si>
+    <t>Play Mania Sports Lounge</t>
+  </si>
+  <si>
+    <t>Call of Duty Mobile Tournament</t>
+  </si>
+  <si>
+    <t>Online Martial Arts Coaching for Kids at Home</t>
+  </si>
+  <si>
+    <t>verifyIfTheListOfEventsAreDisplayed_20006</t>
+  </si>
+  <si>
+    <t>getTheListOfAllSportsActivity_20007</t>
+  </si>
+  <si>
+    <t>testScrollDownFunctionality_20008</t>
+  </si>
+  <si>
+    <t>testMoviesLinkButton_20009</t>
+  </si>
+  <si>
+    <t>testIfLanguagesButtonIsActive_20011</t>
+  </si>
+  <si>
+    <t>verifyIfLanguagesAreDisplayed_20012</t>
+  </si>
+  <si>
+    <t>printListOfAllTheLanguages_20013</t>
+  </si>
+  <si>
+    <t>testSignInButton_20014</t>
+  </si>
+  <si>
+    <t>verifyIfContinueWith GoogleIsPresent_20015</t>
+  </si>
+  <si>
+    <t>testContinueWithGoogleButton_20016</t>
+  </si>
+  <si>
+    <t>signInWithValidEmail_20017</t>
+  </si>
+  <si>
+    <t>signInWithValidEmailAndInvalidPassword_20018</t>
+  </si>
+  <si>
+    <t>signInWithInValidEmail_20019</t>
+  </si>
+  <si>
+    <t>produceErrorWhileSignInWithoutEmail_20020</t>
+  </si>
+  <si>
+    <t>produceErrorWhileSignInWithoutpassword_20021</t>
+  </si>
+  <si>
+    <t>To verify if the user is able to change the city after navigating to sports page on bookmyshow.com</t>
+  </si>
+  <si>
+    <t>user is on sports of bookmyshow</t>
+  </si>
+  <si>
+    <t>1.Browser should be opened.
+2.Go to bookmyshow.com website.
+3.click on the city option.
+4.select the required city from the city field.
+5. select sports button on the homepage.
+6.Click on the selected city displayed on menu bar.</t>
+  </si>
+  <si>
+    <t>testIfUserIsAbleToChangeTheCity_20004</t>
+  </si>
+  <si>
+    <t>1.Browser should be opened.
+2.Go to bookmyshow.com website.
+3.click on the city option.
+4.select the required city from the city field.
+5. select sports button on the homepage.
+6.Click on the selected city displayed on menu bar.
+7.List of Popular cities is displayed</t>
+  </si>
+  <si>
+    <t>To verify if user is able to clear the language in filter section</t>
+  </si>
+  <si>
+    <t>user should be on the movies page of bookmyshow.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1.Browser should be opened.
+2.Go to bookmyshow.com website.
+3.Select the required city.
+4.click on the movies field on the homepage of bookmyshow.
+5.click on the languages button on the homepage of the movies field.
+6.Select a language from the list of languages displayed.
+7.click on clear button </t>
+  </si>
+  <si>
+    <t>checkIfClearButtonIsActive_20010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1.Browser should be opened.
+2.Go to bookmyshow.com website.
+3.Select the required city.
+4.click on the movies field on the homepage of bookmyshow.
+5.click on the languages button on the homepage of the movies field.
+6.Select a language from the list of languages displayed.
+7.click on clear button 
+8.The selected language is unfiltered .</t>
+  </si>
+  <si>
+    <t>language</t>
   </si>
 </sst>
 </file>
@@ -1062,7 +1073,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1105,6 +1116,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1119,7 +1136,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1220,9 +1237,6 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1241,6 +1255,16 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1550,7 +1574,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1652,10 +1676,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1695,16 +1719,16 @@
       <c r="F1" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="G1" s="40" t="s">
         <v>23</v>
       </c>
       <c r="H1" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="44" t="s">
+      <c r="I1" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="44" t="s">
+      <c r="J1" s="43" t="s">
         <v>26</v>
       </c>
       <c r="K1" s="12" t="s">
@@ -1811,7 +1835,7 @@
         <v>33</v>
       </c>
       <c r="D4" s="9">
-        <f t="shared" ref="D4:D16" si="0">D3+1</f>
+        <f t="shared" ref="D4:D14" si="0">D3+1</f>
         <v>20003</v>
       </c>
       <c r="E4" s="13" t="s">
@@ -1839,7 +1863,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>4</v>
       </c>
@@ -1853,23 +1877,23 @@
         <f t="shared" si="0"/>
         <v>20004</v>
       </c>
-      <c r="E5" s="13" t="s">
-        <v>53</v>
+      <c r="E5" s="45" t="s">
+        <v>206</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>48</v>
+        <v>207</v>
       </c>
       <c r="G5" s="33" t="s">
-        <v>49</v>
+        <v>208</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>54</v>
+        <v>209</v>
       </c>
       <c r="I5" s="33" t="s">
-        <v>51</v>
+        <v>210</v>
       </c>
       <c r="J5" s="33" t="s">
-        <v>55</v>
+        <v>210</v>
       </c>
       <c r="K5" s="16" t="s">
         <v>40</v>
@@ -1886,29 +1910,29 @@
         <v>32</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D6" s="9">
         <f t="shared" si="0"/>
         <v>20005</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F6" s="20" t="s">
         <v>48</v>
       </c>
       <c r="G6" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" s="33" t="s">
         <v>58</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="I6" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="J6" s="33" t="s">
-        <v>61</v>
       </c>
       <c r="K6" s="16" t="s">
         <v>40</v>
@@ -1917,7 +1941,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>4</v>
       </c>
@@ -1925,29 +1949,29 @@
         <v>32</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D7" s="9">
         <f t="shared" si="0"/>
         <v>20006</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="I7" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="26" t="s">
+      <c r="J7" s="33" t="s">
         <v>63</v>
-      </c>
-      <c r="G7" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="I7" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="J7" s="33" t="s">
-        <v>66</v>
       </c>
       <c r="K7" s="16" t="s">
         <v>40</v>
@@ -1956,7 +1980,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>4</v>
       </c>
@@ -1964,29 +1988,29 @@
         <v>32</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D8" s="9">
         <f t="shared" si="0"/>
         <v>20007</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="I8" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="J8" s="33" t="s">
         <v>67</v>
-      </c>
-      <c r="F8" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="G8" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="I8" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="J8" s="33" t="s">
-        <v>71</v>
       </c>
       <c r="K8" s="16" t="s">
         <v>40</v>
@@ -2003,29 +2027,29 @@
         <v>32</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D9" s="9">
         <f t="shared" si="0"/>
         <v>20008</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F9" s="26" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G9" s="33" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>74</v>
+        <v>193</v>
       </c>
       <c r="I9" s="33" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="J9" s="33" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="K9" s="16" t="s">
         <v>40</v>
@@ -2034,37 +2058,37 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="72" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="D10" s="9">
         <f t="shared" si="0"/>
         <v>20009</v>
       </c>
-      <c r="E10" s="28" t="s">
+      <c r="E10" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="F10" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="I10" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="J10" s="33" t="s">
         <v>77</v>
-      </c>
-      <c r="F10" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="G10" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="I10" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="J10" s="33" t="s">
-        <v>81</v>
       </c>
       <c r="K10" s="16" t="s">
         <v>40</v>
@@ -2073,37 +2097,37 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="72" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="D11" s="9">
         <f t="shared" si="0"/>
         <v>20010</v>
       </c>
-      <c r="E11" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="F11" s="26" t="s">
-        <v>48</v>
+      <c r="E11" s="45" t="s">
+        <v>211</v>
+      </c>
+      <c r="F11" s="46" t="s">
+        <v>212</v>
       </c>
       <c r="G11" s="33" t="s">
-        <v>85</v>
+        <v>213</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>86</v>
+        <v>214</v>
       </c>
       <c r="I11" s="33" t="s">
-        <v>87</v>
+        <v>215</v>
       </c>
       <c r="J11" s="33" t="s">
-        <v>88</v>
+        <v>215</v>
       </c>
       <c r="K11" s="16" t="s">
         <v>40</v>
@@ -2112,37 +2136,37 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="72" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D12" s="9">
         <f t="shared" si="0"/>
         <v>20011</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="F12" s="26" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G12" s="33" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>91</v>
+        <v>195</v>
       </c>
       <c r="I12" s="33" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="J12" s="33" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="K12" s="16" t="s">
         <v>40</v>
@@ -2156,32 +2180,32 @@
         <v>4</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="D13" s="9">
         <f t="shared" si="0"/>
         <v>20012</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="F13" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="G13" s="33" t="s">
-        <v>96</v>
+        <v>80</v>
+      </c>
+      <c r="G13" s="41" t="s">
+        <v>85</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>97</v>
+        <v>196</v>
       </c>
       <c r="I13" s="33" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="J13" s="33" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="K13" s="16" t="s">
         <v>40</v>
@@ -2190,37 +2214,37 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="144" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="D14" s="9">
         <f t="shared" si="0"/>
         <v>20013</v>
       </c>
-      <c r="E14" s="16" t="s">
-        <v>100</v>
+      <c r="E14" s="28" t="s">
+        <v>88</v>
       </c>
       <c r="F14" s="26" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="G14" s="33" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>101</v>
+        <v>197</v>
       </c>
       <c r="I14" s="33" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="J14" s="33" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="K14" s="16" t="s">
         <v>40</v>
@@ -2229,410 +2253,333 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C15" s="31" t="s">
         <v>93</v>
       </c>
       <c r="D15" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D15:D22" si="1">D14+1</f>
         <v>20014</v>
       </c>
-      <c r="E15" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="F15" s="26" t="s">
+      <c r="E15" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="F15" s="20" t="s">
         <v>95</v>
       </c>
       <c r="G15" s="42" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="I15" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="J15" s="33" t="s">
-        <v>107</v>
+        <v>198</v>
+      </c>
+      <c r="I15" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="J15" s="42" t="s">
+        <v>98</v>
       </c>
       <c r="K15" s="16" t="s">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="L15" s="9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="144" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C16" s="31" t="s">
         <v>93</v>
       </c>
       <c r="D16" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20015</v>
       </c>
-      <c r="E16" s="28" t="s">
-        <v>108</v>
+      <c r="E16" s="23" t="s">
+        <v>100</v>
       </c>
       <c r="F16" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="G16" s="33" t="s">
-        <v>109</v>
+        <v>101</v>
+      </c>
+      <c r="G16" s="42" t="s">
+        <v>102</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="I16" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="J16" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="K16" s="16" t="s">
-        <v>40</v>
+        <v>199</v>
+      </c>
+      <c r="I16" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="J16" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="K16" s="25" t="s">
+        <v>99</v>
       </c>
       <c r="L16" s="9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="D17" s="9">
-        <f t="shared" ref="D17:D24" si="1">D16+1</f>
+        <f t="shared" si="1"/>
         <v>20016</v>
       </c>
-      <c r="E17" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="F17" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="G17" s="43" t="s">
-        <v>117</v>
+      <c r="E17" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="F17" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="G17" s="42" t="s">
+        <v>107</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="I17" s="43" t="s">
-        <v>119</v>
-      </c>
-      <c r="J17" s="43" t="s">
-        <v>120</v>
-      </c>
-      <c r="K17" s="16" t="s">
-        <v>121</v>
+        <v>200</v>
+      </c>
+      <c r="I17" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="J17" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="K17" s="25" t="s">
+        <v>99</v>
       </c>
       <c r="L17" s="9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D18" s="9">
         <f t="shared" si="1"/>
         <v>20017</v>
       </c>
-      <c r="E18" s="23" t="s">
-        <v>122</v>
+      <c r="E18" s="17" t="s">
+        <v>111</v>
       </c>
       <c r="F18" s="26" t="s">
-        <v>123</v>
-      </c>
-      <c r="G18" s="43" t="s">
-        <v>124</v>
+        <v>112</v>
+      </c>
+      <c r="G18" s="42" t="s">
+        <v>113</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="I18" s="43" t="s">
-        <v>126</v>
-      </c>
-      <c r="J18" s="43" t="s">
-        <v>127</v>
+        <v>201</v>
+      </c>
+      <c r="I18" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="J18" s="42" t="s">
+        <v>108</v>
       </c>
       <c r="K18" s="25" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="L18" s="9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D19" s="9">
         <f t="shared" si="1"/>
         <v>20018</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F19" s="26" t="s">
-        <v>129</v>
-      </c>
-      <c r="G19" s="43" t="s">
-        <v>130</v>
+        <v>112</v>
+      </c>
+      <c r="G19" s="42" t="s">
+        <v>115</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="I19" s="43" t="s">
-        <v>132</v>
-      </c>
-      <c r="J19" s="43" t="s">
-        <v>133</v>
+        <v>202</v>
+      </c>
+      <c r="I19" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="J19" s="42" t="s">
+        <v>116</v>
       </c>
       <c r="K19" s="25" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="L19" s="9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="217.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="C20" s="31" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="D20" s="9">
         <f t="shared" si="1"/>
         <v>20019</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="F20" s="26" t="s">
-        <v>136</v>
-      </c>
-      <c r="G20" s="43" t="s">
-        <v>137</v>
+        <v>112</v>
+      </c>
+      <c r="G20" s="42" t="s">
+        <v>119</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="I20" s="43" t="s">
-        <v>132</v>
-      </c>
-      <c r="J20" s="43" t="s">
-        <v>132</v>
+        <v>203</v>
+      </c>
+      <c r="I20" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="J20" s="42" t="s">
+        <v>121</v>
       </c>
       <c r="K20" s="25" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="L20" s="9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" ht="243.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="D21" s="9">
         <f t="shared" si="1"/>
         <v>20020</v>
       </c>
-      <c r="E21" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="F21" s="26" t="s">
-        <v>136</v>
-      </c>
-      <c r="G21" s="43" t="s">
-        <v>140</v>
+      <c r="E21" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="F21" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="G21" s="42" t="s">
+        <v>123</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="I21" s="43" t="s">
-        <v>142</v>
-      </c>
-      <c r="J21" s="43" t="s">
-        <v>142</v>
+        <v>204</v>
+      </c>
+      <c r="I21" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="J21" s="42" t="s">
+        <v>124</v>
       </c>
       <c r="K21" s="25" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="L21" s="9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="217.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" ht="215.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="D22" s="9">
         <f t="shared" si="1"/>
         <v>20021</v>
       </c>
-      <c r="E22" s="17" t="s">
-        <v>144</v>
+      <c r="E22" s="23" t="s">
+        <v>125</v>
       </c>
       <c r="F22" s="26" t="s">
-        <v>136</v>
-      </c>
-      <c r="G22" s="43" t="s">
-        <v>145</v>
+        <v>126</v>
+      </c>
+      <c r="G22" s="42" t="s">
+        <v>127</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="I22" s="43" t="s">
-        <v>147</v>
-      </c>
-      <c r="J22" s="43" t="s">
-        <v>148</v>
+        <v>205</v>
+      </c>
+      <c r="I22" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="J22" s="42" t="s">
+        <v>128</v>
       </c>
       <c r="K22" s="25" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="L22" s="9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="243.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="C23" s="31" t="s">
-        <v>143</v>
-      </c>
-      <c r="D23" s="9">
-        <f t="shared" si="1"/>
-        <v>20022</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="F23" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="G23" s="43" t="s">
-        <v>150</v>
-      </c>
-      <c r="H23" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="I23" s="43" t="s">
-        <v>152</v>
-      </c>
-      <c r="J23" s="43" t="s">
-        <v>152</v>
-      </c>
-      <c r="K23" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="L23" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="215.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="C24" s="31" t="s">
-        <v>143</v>
-      </c>
-      <c r="D24" s="9">
-        <f t="shared" si="1"/>
-        <v>20023</v>
-      </c>
-      <c r="E24" s="23" t="s">
-        <v>153</v>
-      </c>
-      <c r="F24" s="26" t="s">
-        <v>154</v>
-      </c>
-      <c r="G24" s="43" t="s">
-        <v>155</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="I24" s="43" t="s">
-        <v>157</v>
-      </c>
-      <c r="J24" s="43" t="s">
-        <v>157</v>
-      </c>
-      <c r="K24" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="L24" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="E25" s="14"/>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E23" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2646,22 +2593,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>158</v>
+        <v>129</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="39" t="s">
         <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>159</v>
+        <v>130</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>160</v>
+        <v>131</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>161</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -2669,19 +2616,19 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
       <c r="C2" s="9">
-        <v>20019</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="E2" t="s">
-        <v>162</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>163</v>
+        <v>20010</v>
+      </c>
+      <c r="D2" s="48" t="s">
+        <v>214</v>
+      </c>
+      <c r="E2" s="47" t="s">
+        <v>216</v>
+      </c>
+      <c r="F2" s="47" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -2689,19 +2636,19 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="C3" s="9">
-        <v>20021</v>
+        <v>20017</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>146</v>
+        <v>201</v>
       </c>
       <c r="E3" t="s">
-        <v>162</v>
-      </c>
-      <c r="F3" s="39" t="s">
-        <v>204</v>
+        <v>133</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -2709,19 +2656,19 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="C4" s="9">
-        <v>20020</v>
+        <v>20019</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>141</v>
+        <v>203</v>
       </c>
       <c r="E4" t="s">
-        <v>162</v>
-      </c>
-      <c r="F4" s="39" t="s">
-        <v>163</v>
+        <v>133</v>
+      </c>
+      <c r="F4" s="38" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -2729,26 +2676,46 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="C5" s="9">
-        <v>20020</v>
+        <v>20018</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>141</v>
+        <v>202</v>
       </c>
       <c r="E5" t="s">
-        <v>164</v>
-      </c>
-      <c r="F5" t="s">
-        <v>165</v>
+        <v>133</v>
+      </c>
+      <c r="F5" s="38" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="9">
+        <v>20018</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="E6" t="s">
+        <v>135</v>
+      </c>
+      <c r="F6" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
-    <hyperlink ref="F3" r:id="rId2"/>
-    <hyperlink ref="F4" r:id="rId3"/>
+    <hyperlink ref="F3" r:id="rId1"/>
+    <hyperlink ref="F4" r:id="rId2"/>
+    <hyperlink ref="F5" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2773,19 +2740,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>166</v>
+        <v>137</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>167</v>
+        <v>138</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>168</v>
+        <v>139</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>169</v>
+        <v>140</v>
       </c>
       <c r="E1" s="32" t="s">
-        <v>170</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -2793,16 +2760,16 @@
         <v>32</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>171</v>
+        <v>142</v>
       </c>
       <c r="C2" s="30" t="s">
         <v>33</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
       <c r="E2" s="33" t="s">
-        <v>173</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -2810,101 +2777,101 @@
         <v>32</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>171</v>
+        <v>142</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>174</v>
+        <v>145</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>175</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>176</v>
+        <v>147</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>177</v>
+        <v>148</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>173</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="21" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>176</v>
+        <v>147</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>178</v>
+        <v>149</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>179</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>180</v>
+        <v>151</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>181</v>
+        <v>152</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>182</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>180</v>
+        <v>151</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>183</v>
+        <v>154</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>184</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>180</v>
+        <v>151</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>185</v>
+        <v>156</v>
       </c>
       <c r="E8" s="34" t="s">
-        <v>186</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -2932,22 +2899,22 @@
   <sheetData>
     <row r="1" spans="1:61" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="35" t="s">
-        <v>187</v>
+        <v>158</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>167</v>
+        <v>138</v>
       </c>
       <c r="C1" s="36" t="s">
-        <v>188</v>
+        <v>159</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>189</v>
+        <v>160</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>190</v>
+        <v>161</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>191</v>
+        <v>162</v>
       </c>
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
@@ -3010,16 +2977,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>171</v>
+        <v>142</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>192</v>
+        <v>163</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>193</v>
+        <v>164</v>
       </c>
       <c r="E2" s="37" t="s">
-        <v>194</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:61" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -3027,16 +2994,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>176</v>
+        <v>147</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>195</v>
+        <v>166</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>196</v>
-      </c>
-      <c r="E3" s="45" t="s">
-        <v>197</v>
+        <v>167</v>
+      </c>
+      <c r="E3" s="44" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:61" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3044,16 +3011,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>180</v>
+        <v>151</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>198</v>
+        <v>169</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>199</v>
+        <v>170</v>
       </c>
       <c r="E4" s="37" t="s">
-        <v>200</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -3063,73 +3030,126 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.88671875" customWidth="1"/>
+    <col min="1" max="1" width="41.88671875" customWidth="1"/>
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="19.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
-        <v>201</v>
-      </c>
-      <c r="B1" s="38" t="s">
-        <v>202</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>213</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>188</v>
+      </c>
+      <c r="B6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>189</v>
+      </c>
+      <c r="B7">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>190</v>
+      </c>
+      <c r="B8">
+        <v>1180</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>203</v>
+        <v>172</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>205</v>
+        <v>174</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>206</v>
+        <v>175</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>207</v>
+        <v>176</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>208</v>
+        <v>177</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>209</v>
+        <v>178</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>210</v>
+        <v>179</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>211</v>
+        <v>180</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>212</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>

--- a/Automation-Framework-BookMyShow/ExecutionFiles/Run/BookMyShow.xlsx
+++ b/Automation-Framework-BookMyShow/ExecutionFiles/Run/BookMyShow.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16416" activeTab="1"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16416" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalVariables" sheetId="2" r:id="rId1"/>
@@ -1579,10 +1579,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" customWidth="1"/>
-    <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="37.44140625" customWidth="1"/>
-    <col min="4" max="4" width="83.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="37.44140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="83.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -1678,26 +1678,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" style="9" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="49.5546875" style="17" customWidth="1"/>
-    <col min="6" max="6" width="49.5546875" style="10" customWidth="1"/>
-    <col min="7" max="7" width="49.5546875" style="34" customWidth="1"/>
-    <col min="8" max="8" width="45.88671875" style="9" customWidth="1"/>
-    <col min="9" max="9" width="44.33203125" style="34" customWidth="1"/>
-    <col min="10" max="10" width="42.109375" style="34" customWidth="1"/>
-    <col min="11" max="11" width="19.88671875" style="17" customWidth="1"/>
-    <col min="12" max="12" width="24.109375" style="9" customWidth="1"/>
-    <col min="13" max="13" width="14.88671875" customWidth="1"/>
-    <col min="14" max="14" width="18.88671875" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="9" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.88671875" style="9" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.33203125" style="9" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="49.5546875" style="17" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="49.5546875" style="10" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="49.5546875" style="34" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="45.88671875" style="9" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="44.33203125" style="34" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="42.109375" style="34" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="19.88671875" style="17" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="24.109375" style="9" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="14.88671875" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="18.88671875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
@@ -2578,17 +2578,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="13.6640625" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="48" customWidth="1"/>
-    <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="20.5546875" customWidth="1"/>
+    <col min="1" max="2" width="13.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.6640625" style="9" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="48" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="20.5546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -2731,11 +2731,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="50" style="9" customWidth="1"/>
-    <col min="2" max="2" width="21.88671875" style="9" customWidth="1"/>
-    <col min="3" max="3" width="17.5546875" style="9" customWidth="1"/>
-    <col min="4" max="4" width="47.44140625" style="10" customWidth="1"/>
-    <col min="5" max="5" width="77.109375" style="34" customWidth="1"/>
+    <col min="1" max="1" width="50" style="9" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21.88671875" style="9" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.5546875" style="9" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="47.44140625" style="10" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="77.109375" style="34" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -2889,12 +2889,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.109375" style="9" customWidth="1"/>
-    <col min="2" max="2" width="15.5546875" customWidth="1"/>
-    <col min="3" max="3" width="76.6640625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="31.6640625" customWidth="1"/>
-    <col min="5" max="5" width="40.109375" style="9" customWidth="1"/>
-    <col min="6" max="6" width="29.44140625" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" style="9" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.5546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="76.6640625" style="10" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="31.6640625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="40.109375" style="9" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="29.44140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:61" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3030,17 +3030,17 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.88671875" customWidth="1"/>
-    <col min="2" max="2" width="40" customWidth="1"/>
-    <col min="3" max="3" width="19.44140625" customWidth="1"/>
+    <col min="1" max="1" width="41.88671875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="40" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.44140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -3114,17 +3114,17 @@
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
@@ -3134,7 +3134,7 @@
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
@@ -3144,7 +3144,7 @@
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">

--- a/Automation-Framework-BookMyShow/ExecutionFiles/Run/BookMyShow.xlsx
+++ b/Automation-Framework-BookMyShow/ExecutionFiles/Run/BookMyShow.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="218">
   <si>
     <t>ProjectName</t>
   </si>
@@ -1021,11 +1021,15 @@
   <si>
     <t>language</t>
   </si>
+  <si>
+    <t>Indian Chess League 2021</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1579,10 +1583,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="37.44140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="83.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="37.44140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="83.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -1684,20 +1688,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="9" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.88671875" style="9" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.33203125" style="9" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="49.5546875" style="17" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="49.5546875" style="10" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="49.5546875" style="34" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="45.88671875" style="9" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="44.33203125" style="34" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="42.109375" style="34" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="19.88671875" style="17" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="24.109375" style="9" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="14.88671875" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="18.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="9" width="12.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="9" width="12.88671875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="9" width="14.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="17" width="49.5546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="10" width="49.5546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="34" width="49.5546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="9" width="45.88671875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="34" width="44.33203125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="34" width="42.109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="17" width="19.88671875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="9" width="24.109375" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="14.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="18.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
@@ -2584,11 +2588,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="13.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.6640625" style="9" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="48" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="20.5546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="9" width="19.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="48.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="20.5546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -2731,11 +2735,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="50" style="9" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21.88671875" style="9" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.5546875" style="9" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="47.44140625" style="10" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="77.109375" style="34" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="9" width="50.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="9" width="21.88671875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="9" width="17.5546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="10" width="47.44140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="34" width="77.109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -2889,12 +2893,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.109375" style="9" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.5546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="76.6640625" style="10" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="31.6640625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="40.109375" style="9" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="29.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="9" width="10.109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="15.5546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="10" width="76.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="31.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="9" width="40.109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="29.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:61" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3030,7 +3034,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
@@ -3038,9 +3042,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.88671875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="40" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="41.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="40.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="19.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -3051,60 +3055,60 @@
         <v>183</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2">
       <c r="A2" t="s">
         <v>184</v>
       </c>
-      <c r="B2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B2" t="n">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" t="s">
-        <v>185</v>
-      </c>
-      <c r="B3">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>217</v>
+      </c>
+      <c r="B3" t="n">
+        <v>99.0</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" t="s">
         <v>186</v>
       </c>
-      <c r="B4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B4" t="n">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" t="s">
         <v>187</v>
       </c>
-      <c r="B5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B5" t="n">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" t="s">
         <v>188</v>
       </c>
-      <c r="B6">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B6" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" t="s">
         <v>189</v>
       </c>
-      <c r="B7">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B7" t="n">
+        <v>300.0</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" t="s">
         <v>190</v>
       </c>
-      <c r="B8">
-        <v>1180</v>
+      <c r="B8" t="n">
+        <v>1180.0</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
@@ -3112,42 +3116,42 @@
         <v>172</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26">
       <c r="A26" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27">
       <c r="A27" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28">
       <c r="A28" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29">
       <c r="A29" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30">
       <c r="A30" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31">
       <c r="A31" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32">
       <c r="A32" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33">
       <c r="A33" t="s">
         <v>181</v>
       </c>

--- a/Automation-Framework-BookMyShow/ExecutionFiles/Run/BookMyShow.xlsx
+++ b/Automation-Framework-BookMyShow/ExecutionFiles/Run/BookMyShow.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="218">
   <si>
     <t>ProjectName</t>
   </si>
@@ -3118,17 +3118,17 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="29">

--- a/Automation-Framework-BookMyShow/ExecutionFiles/Run/BookMyShow.xlsx
+++ b/Automation-Framework-BookMyShow/ExecutionFiles/Run/BookMyShow.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="218">
   <si>
     <t>ProjectName</t>
   </si>
@@ -3118,17 +3118,17 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="29">

--- a/Automation-Framework-BookMyShow/ExecutionFiles/Run/BookMyShow.xlsx
+++ b/Automation-Framework-BookMyShow/ExecutionFiles/Run/BookMyShow.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="218">
   <si>
     <t>ProjectName</t>
   </si>
@@ -3118,17 +3118,17 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="29">
@@ -3138,17 +3138,17 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="33">

--- a/Automation-Framework-BookMyShow/ExecutionFiles/Run/BookMyShow.xlsx
+++ b/Automation-Framework-BookMyShow/ExecutionFiles/Run/BookMyShow.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16416" activeTab="2"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16416" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalVariables" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="218">
   <si>
     <t>ProjectName</t>
   </si>
@@ -900,9 +900,6 @@
     <t>CODM Solo Tournament by Big Band Sports</t>
   </si>
   <si>
-    <t>Indian Chess League 2020</t>
-  </si>
-  <si>
     <t>Free Fire Solo And Squad (Bermuda)</t>
   </si>
   <si>
@@ -1023,6 +1020,9 @@
   </si>
   <si>
     <t>Indian Chess League 2021</t>
+  </si>
+  <si>
+    <t>PASS</t>
   </si>
 </sst>
 </file>
@@ -1682,8 +1682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1700,7 +1700,7 @@
     <col min="10" max="10" customWidth="true" style="34" width="42.109375" collapsed="true"/>
     <col min="11" max="11" customWidth="true" style="17" width="19.88671875" collapsed="true"/>
     <col min="12" max="12" customWidth="true" style="9" width="24.109375" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="14.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="9" width="14.88671875" collapsed="true"/>
     <col min="14" max="14" customWidth="true" width="18.88671875" collapsed="true"/>
   </cols>
   <sheetData>
@@ -1741,7 +1741,7 @@
       <c r="L1" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="18" t="s">
         <v>29</v>
       </c>
       <c r="N1" s="3" t="s">
@@ -1788,6 +1788,9 @@
       <c r="L2" s="9" t="s">
         <v>41</v>
       </c>
+      <c r="M2" s="9" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="3" spans="1:15" ht="72" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
@@ -1827,6 +1830,9 @@
       <c r="L3" s="9" t="s">
         <v>41</v>
       </c>
+      <c r="M3" s="9" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="4" spans="1:15" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
@@ -1866,6 +1872,9 @@
       <c r="L4" s="9" t="s">
         <v>41</v>
       </c>
+      <c r="M4" s="9" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="5" spans="1:15" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
@@ -1882,28 +1891,31 @@
         <v>20004</v>
       </c>
       <c r="E5" s="45" t="s">
+        <v>205</v>
+      </c>
+      <c r="F5" s="20" t="s">
         <v>206</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="G5" s="33" t="s">
         <v>207</v>
       </c>
-      <c r="G5" s="33" t="s">
+      <c r="H5" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="I5" s="33" t="s">
         <v>209</v>
       </c>
-      <c r="I5" s="33" t="s">
-        <v>210</v>
-      </c>
       <c r="J5" s="33" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K5" s="16" t="s">
         <v>40</v>
       </c>
       <c r="L5" s="9" t="s">
         <v>41</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="100.8" x14ac:dyDescent="0.3">
@@ -1944,6 +1956,9 @@
       <c r="L6" s="9" t="s">
         <v>41</v>
       </c>
+      <c r="M6" s="9" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="7" spans="1:15" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
@@ -1969,7 +1984,7 @@
         <v>61</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I7" s="33" t="s">
         <v>62</v>
@@ -1982,6 +1997,9 @@
       </c>
       <c r="L7" s="9" t="s">
         <v>41</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="158.4" x14ac:dyDescent="0.3">
@@ -2008,7 +2026,7 @@
         <v>65</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I8" s="33" t="s">
         <v>66</v>
@@ -2021,6 +2039,9 @@
       </c>
       <c r="L8" s="9" t="s">
         <v>41</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="158.4" x14ac:dyDescent="0.3">
@@ -2047,7 +2068,7 @@
         <v>69</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I9" s="33" t="s">
         <v>70</v>
@@ -2060,6 +2081,9 @@
       </c>
       <c r="L9" s="9" t="s">
         <v>41</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="72" x14ac:dyDescent="0.3">
@@ -2086,7 +2110,7 @@
         <v>75</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I10" s="33" t="s">
         <v>76</v>
@@ -2099,6 +2123,9 @@
       </c>
       <c r="L10" s="9" t="s">
         <v>41</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="172.8" x14ac:dyDescent="0.3">
@@ -2116,28 +2143,31 @@
         <v>20010</v>
       </c>
       <c r="E11" s="45" t="s">
+        <v>210</v>
+      </c>
+      <c r="F11" s="46" t="s">
         <v>211</v>
       </c>
-      <c r="F11" s="46" t="s">
+      <c r="G11" s="33" t="s">
         <v>212</v>
       </c>
-      <c r="G11" s="33" t="s">
+      <c r="H11" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="I11" s="33" t="s">
         <v>214</v>
       </c>
-      <c r="I11" s="33" t="s">
-        <v>215</v>
-      </c>
       <c r="J11" s="33" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K11" s="16" t="s">
         <v>40</v>
       </c>
       <c r="L11" s="9" t="s">
         <v>41</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="115.2" x14ac:dyDescent="0.3">
@@ -2164,7 +2194,7 @@
         <v>81</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I12" s="33" t="s">
         <v>82</v>
@@ -2177,6 +2207,9 @@
       </c>
       <c r="L12" s="9" t="s">
         <v>41</v>
+      </c>
+      <c r="M12" s="9" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="115.2" x14ac:dyDescent="0.3">
@@ -2203,7 +2236,7 @@
         <v>85</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I13" s="33" t="s">
         <v>86</v>
@@ -2216,6 +2249,9 @@
       </c>
       <c r="L13" s="9" t="s">
         <v>41</v>
+      </c>
+      <c r="M13" s="9" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="144" x14ac:dyDescent="0.3">
@@ -2242,7 +2278,7 @@
         <v>89</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I14" s="33" t="s">
         <v>90</v>
@@ -2255,6 +2291,9 @@
       </c>
       <c r="L14" s="9" t="s">
         <v>41</v>
+      </c>
+      <c r="M14" s="9" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="86.4" x14ac:dyDescent="0.3">
@@ -2281,7 +2320,7 @@
         <v>96</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I15" s="42" t="s">
         <v>97</v>
@@ -2294,6 +2333,9 @@
       </c>
       <c r="L15" s="9" t="s">
         <v>41</v>
+      </c>
+      <c r="M15" s="9" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="86.4" x14ac:dyDescent="0.3">
@@ -2320,7 +2362,7 @@
         <v>102</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I16" s="42" t="s">
         <v>103</v>
@@ -2334,8 +2376,11 @@
       <c r="L16" s="9" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="M16" s="9" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>4</v>
       </c>
@@ -2359,7 +2404,7 @@
         <v>107</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I17" s="42" t="s">
         <v>108</v>
@@ -2373,8 +2418,11 @@
       <c r="L17" s="9" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="M17" s="9" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>4</v>
       </c>
@@ -2398,7 +2446,7 @@
         <v>113</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I18" s="42" t="s">
         <v>108</v>
@@ -2413,7 +2461,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>4</v>
       </c>
@@ -2437,7 +2485,7 @@
         <v>115</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I19" s="42" t="s">
         <v>116</v>
@@ -2452,7 +2500,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="217.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" ht="217.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>4</v>
       </c>
@@ -2476,7 +2524,7 @@
         <v>119</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I20" s="42" t="s">
         <v>120</v>
@@ -2490,8 +2538,11 @@
       <c r="L20" s="9" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" ht="243.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M20" s="9" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="243.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>4</v>
       </c>
@@ -2515,7 +2566,7 @@
         <v>123</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I21" s="42" t="s">
         <v>124</v>
@@ -2529,8 +2580,11 @@
       <c r="L21" s="9" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" ht="215.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M21" s="9" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="215.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>4</v>
       </c>
@@ -2554,7 +2608,7 @@
         <v>127</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I22" s="42" t="s">
         <v>128</v>
@@ -2569,7 +2623,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E23" s="14"/>
     </row>
   </sheetData>
@@ -2582,7 +2636,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -2626,10 +2680,10 @@
         <v>20010</v>
       </c>
       <c r="D2" s="48" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E2" s="47" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F2" s="47" t="s">
         <v>174</v>
@@ -2646,7 +2700,7 @@
         <v>20017</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E3" t="s">
         <v>133</v>
@@ -2666,7 +2720,7 @@
         <v>20019</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E4" t="s">
         <v>133</v>
@@ -2686,7 +2740,7 @@
         <v>20018</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E5" t="s">
         <v>133</v>
@@ -2706,7 +2760,7 @@
         <v>20018</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E6" t="s">
         <v>135</v>
@@ -3065,7 +3119,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B3" t="n">
         <v>99.0</v>
@@ -3073,7 +3127,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B4" t="n">
         <v>100.0</v>
@@ -3081,7 +3135,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B5" t="n">
         <v>100.0</v>
@@ -3089,7 +3143,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B6" t="n">
         <v>200.0</v>
@@ -3097,7 +3151,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B7" t="n">
         <v>300.0</v>
@@ -3105,7 +3159,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B8" t="n">
         <v>1180.0</v>
@@ -3151,7 +3205,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>181</v>
       </c>

--- a/Automation-Framework-BookMyShow/ExecutionFiles/Run/BookMyShow.xlsx
+++ b/Automation-Framework-BookMyShow/ExecutionFiles/Run/BookMyShow.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16416" activeTab="1"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="23256" windowHeight="13176" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalVariables" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="219">
   <si>
     <t>ProjectName</t>
   </si>
@@ -741,9 +741,6 @@
     <t>Email</t>
   </si>
   <si>
-    <t>abc@gmail.com</t>
-  </si>
-  <si>
     <t>password</t>
   </si>
   <si>
@@ -1023,6 +1020,12 @@
   </si>
   <si>
     <t>PASS</t>
+  </si>
+  <si>
+    <t>abc@gmail.com</t>
+  </si>
+  <si>
+    <t>Tulu</t>
   </si>
 </sst>
 </file>
@@ -1682,8 +1685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1789,7 +1792,7 @@
         <v>41</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="72" x14ac:dyDescent="0.3">
@@ -1831,7 +1834,7 @@
         <v>41</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="86.4" x14ac:dyDescent="0.3">
@@ -1873,7 +1876,7 @@
         <v>41</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="115.2" x14ac:dyDescent="0.3">
@@ -1891,22 +1894,22 @@
         <v>20004</v>
       </c>
       <c r="E5" s="45" t="s">
+        <v>204</v>
+      </c>
+      <c r="F5" s="20" t="s">
         <v>205</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="G5" s="33" t="s">
         <v>206</v>
       </c>
-      <c r="G5" s="33" t="s">
+      <c r="H5" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="I5" s="33" t="s">
         <v>208</v>
       </c>
-      <c r="I5" s="33" t="s">
-        <v>209</v>
-      </c>
       <c r="J5" s="33" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K5" s="16" t="s">
         <v>40</v>
@@ -1915,7 +1918,7 @@
         <v>41</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="100.8" x14ac:dyDescent="0.3">
@@ -1957,7 +1960,7 @@
         <v>41</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="129.6" x14ac:dyDescent="0.3">
@@ -1984,7 +1987,7 @@
         <v>61</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I7" s="33" t="s">
         <v>62</v>
@@ -1999,7 +2002,7 @@
         <v>41</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="158.4" x14ac:dyDescent="0.3">
@@ -2026,7 +2029,7 @@
         <v>65</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I8" s="33" t="s">
         <v>66</v>
@@ -2041,7 +2044,7 @@
         <v>41</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="158.4" x14ac:dyDescent="0.3">
@@ -2068,7 +2071,7 @@
         <v>69</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I9" s="33" t="s">
         <v>70</v>
@@ -2083,7 +2086,7 @@
         <v>41</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="72" x14ac:dyDescent="0.3">
@@ -2110,7 +2113,7 @@
         <v>75</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I10" s="33" t="s">
         <v>76</v>
@@ -2125,7 +2128,7 @@
         <v>41</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="172.8" x14ac:dyDescent="0.3">
@@ -2143,22 +2146,22 @@
         <v>20010</v>
       </c>
       <c r="E11" s="45" t="s">
+        <v>209</v>
+      </c>
+      <c r="F11" s="46" t="s">
         <v>210</v>
       </c>
-      <c r="F11" s="46" t="s">
+      <c r="G11" s="33" t="s">
         <v>211</v>
       </c>
-      <c r="G11" s="33" t="s">
+      <c r="H11" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="I11" s="33" t="s">
         <v>213</v>
       </c>
-      <c r="I11" s="33" t="s">
-        <v>214</v>
-      </c>
       <c r="J11" s="33" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K11" s="16" t="s">
         <v>40</v>
@@ -2167,7 +2170,7 @@
         <v>41</v>
       </c>
       <c r="M11" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="115.2" x14ac:dyDescent="0.3">
@@ -2194,7 +2197,7 @@
         <v>81</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I12" s="33" t="s">
         <v>82</v>
@@ -2209,7 +2212,7 @@
         <v>41</v>
       </c>
       <c r="M12" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="115.2" x14ac:dyDescent="0.3">
@@ -2236,7 +2239,7 @@
         <v>85</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I13" s="33" t="s">
         <v>86</v>
@@ -2251,7 +2254,7 @@
         <v>41</v>
       </c>
       <c r="M13" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="144" x14ac:dyDescent="0.3">
@@ -2278,7 +2281,7 @@
         <v>89</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I14" s="33" t="s">
         <v>90</v>
@@ -2293,7 +2296,7 @@
         <v>41</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="86.4" x14ac:dyDescent="0.3">
@@ -2320,7 +2323,7 @@
         <v>96</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I15" s="42" t="s">
         <v>97</v>
@@ -2335,7 +2338,7 @@
         <v>41</v>
       </c>
       <c r="M15" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="86.4" x14ac:dyDescent="0.3">
@@ -2362,7 +2365,7 @@
         <v>102</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I16" s="42" t="s">
         <v>103</v>
@@ -2377,7 +2380,7 @@
         <v>41</v>
       </c>
       <c r="M16" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="172.8" x14ac:dyDescent="0.3">
@@ -2404,7 +2407,7 @@
         <v>107</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I17" s="42" t="s">
         <v>108</v>
@@ -2419,7 +2422,7 @@
         <v>41</v>
       </c>
       <c r="M17" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="172.8" x14ac:dyDescent="0.3">
@@ -2446,7 +2449,7 @@
         <v>113</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I18" s="42" t="s">
         <v>108</v>
@@ -2485,7 +2488,7 @@
         <v>115</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I19" s="42" t="s">
         <v>116</v>
@@ -2524,7 +2527,7 @@
         <v>119</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I20" s="42" t="s">
         <v>120</v>
@@ -2539,7 +2542,7 @@
         <v>41</v>
       </c>
       <c r="M20" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="243.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2566,7 +2569,7 @@
         <v>123</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I21" s="42" t="s">
         <v>124</v>
@@ -2581,7 +2584,7 @@
         <v>41</v>
       </c>
       <c r="M21" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="215.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2608,7 +2611,7 @@
         <v>127</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I22" s="42" t="s">
         <v>128</v>
@@ -2636,8 +2639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2680,13 +2683,13 @@
         <v>20010</v>
       </c>
       <c r="D2" s="48" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E2" s="47" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F2" s="47" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -2700,13 +2703,13 @@
         <v>20017</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E3" t="s">
         <v>133</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>134</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -2720,13 +2723,13 @@
         <v>20019</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E4" t="s">
         <v>133</v>
       </c>
       <c r="F4" s="38" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -2740,13 +2743,13 @@
         <v>20018</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E5" t="s">
         <v>133</v>
       </c>
-      <c r="F5" s="38" t="s">
-        <v>134</v>
+      <c r="F5" s="4" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -2760,13 +2763,13 @@
         <v>20018</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E6" t="s">
+        <v>134</v>
+      </c>
+      <c r="F6" t="s">
         <v>135</v>
-      </c>
-      <c r="F6" t="s">
-        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -2798,19 +2801,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="E1" s="32" t="s">
         <v>140</v>
-      </c>
-      <c r="E1" s="32" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -2818,16 +2821,16 @@
         <v>32</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C2" s="30" t="s">
         <v>33</v>
       </c>
       <c r="D2" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="E2" s="33" t="s">
         <v>143</v>
-      </c>
-      <c r="E2" s="33" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -2835,16 +2838,16 @@
         <v>32</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C3" s="30" t="s">
         <v>53</v>
       </c>
       <c r="D3" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="E3" s="33" t="s">
         <v>145</v>
-      </c>
-      <c r="E3" s="33" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -2852,16 +2855,16 @@
         <v>72</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C4" s="30" t="s">
         <v>73</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -2869,16 +2872,16 @@
         <v>72</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C5" s="30" t="s">
         <v>78</v>
       </c>
       <c r="D5" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="E5" s="33" t="s">
         <v>149</v>
-      </c>
-      <c r="E5" s="33" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -2886,16 +2889,16 @@
         <v>92</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C6" s="30" t="s">
         <v>93</v>
       </c>
       <c r="D6" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="E6" s="33" t="s">
         <v>152</v>
-      </c>
-      <c r="E6" s="33" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -2903,16 +2906,16 @@
         <v>92</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C7" s="31" t="s">
         <v>110</v>
       </c>
       <c r="D7" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="E7" s="34" t="s">
         <v>154</v>
-      </c>
-      <c r="E7" s="34" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -2920,16 +2923,16 @@
         <v>92</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C8" s="31" t="s">
         <v>117</v>
       </c>
       <c r="D8" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="E8" s="34" t="s">
         <v>156</v>
-      </c>
-      <c r="E8" s="34" t="s">
-        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -2957,22 +2960,22 @@
   <sheetData>
     <row r="1" spans="1:61" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="35" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1" s="36" t="s">
         <v>158</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="C1" s="36" t="s">
+      <c r="D1" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="35" t="s">
         <v>160</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="F1" s="5" t="s">
         <v>161</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>162</v>
       </c>
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
@@ -3035,16 +3038,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C2" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="D2" s="31" t="s">
         <v>163</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="E2" s="37" t="s">
         <v>164</v>
-      </c>
-      <c r="E2" s="37" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:61" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -3052,16 +3055,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C3" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="D3" s="31" t="s">
         <v>166</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="E3" s="44" t="s">
         <v>167</v>
-      </c>
-      <c r="E3" s="44" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:61" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3069,16 +3072,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C4" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="D4" s="31" t="s">
         <v>169</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="E4" s="37" t="s">
         <v>170</v>
-      </c>
-      <c r="E4" s="37" t="s">
-        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -3103,15 +3106,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B2" t="n">
         <v>50.0</v>
@@ -3119,7 +3122,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B3" t="n">
         <v>99.0</v>
@@ -3127,7 +3130,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B4" t="n">
         <v>100.0</v>
@@ -3135,7 +3138,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B5" t="n">
         <v>100.0</v>
@@ -3143,7 +3146,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B6" t="n">
         <v>200.0</v>
@@ -3151,7 +3154,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B7" t="n">
         <v>300.0</v>
@@ -3159,7 +3162,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B8" t="n">
         <v>1180.0</v>
@@ -3167,7 +3170,7 @@
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26">
@@ -3182,12 +3185,12 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="30">
@@ -3197,17 +3200,17 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" t="s">
-        <v>181</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>

--- a/Automation-Framework-BookMyShow/ExecutionFiles/Run/BookMyShow.xlsx
+++ b/Automation-Framework-BookMyShow/ExecutionFiles/Run/BookMyShow.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="23256" windowHeight="13176" activeTab="2"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="23256" windowHeight="13176" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalVariables" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="218">
   <si>
     <t>ProjectName</t>
   </si>
@@ -826,10 +826,6 @@
     <t xml:space="preserve">Defect id </t>
   </si>
   <si>
-    <t>To find all the sports activity in a city for coming weekeend ,with lowest charges on Top.
-Display Name of the sports and Date .</t>
-  </si>
-  <si>
     <t>S001,S002</t>
   </si>
   <si>
@@ -883,9 +879,6 @@
   </si>
   <si>
     <t>Tamil</t>
-  </si>
-  <si>
-    <t>Japanese</t>
   </si>
   <si>
     <t>Name of the Event</t>
@@ -1027,12 +1020,15 @@
   <si>
     <t>Tulu</t>
   </si>
+  <si>
+    <t>To find all the sports activity in a city for coming weekend ,with lowest charges on Top.
+Display Name of the sports and Date .</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1586,10 +1582,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="13.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="24.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="37.44140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="83.6640625" collapsed="true"/>
+    <col min="1" max="1" width="13.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="37.44140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="83.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -1685,26 +1681,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="9" width="12.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="9" width="12.88671875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="9" width="14.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="17" width="49.5546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="10" width="49.5546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="34" width="49.5546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="9" width="45.88671875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="34" width="44.33203125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="34" width="42.109375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="17" width="19.88671875" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="9" width="24.109375" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="9" width="14.88671875" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="18.88671875" collapsed="true"/>
+    <col min="1" max="1" width="12.6640625" style="9" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.88671875" style="9" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.33203125" style="9" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="49.5546875" style="17" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="49.5546875" style="10" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="49.5546875" style="34" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="45.88671875" style="9" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="44.33203125" style="34" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="42.109375" style="34" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="19.88671875" style="17" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="24.109375" style="9" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="14.88671875" style="9" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="18.88671875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
@@ -1792,7 +1788,7 @@
         <v>41</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="72" x14ac:dyDescent="0.3">
@@ -1834,7 +1830,7 @@
         <v>41</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="86.4" x14ac:dyDescent="0.3">
@@ -1876,7 +1872,7 @@
         <v>41</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="115.2" x14ac:dyDescent="0.3">
@@ -1894,22 +1890,22 @@
         <v>20004</v>
       </c>
       <c r="E5" s="45" t="s">
+        <v>202</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="G5" s="33" t="s">
         <v>204</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="H5" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="G5" s="33" t="s">
+      <c r="I5" s="33" t="s">
         <v>206</v>
       </c>
-      <c r="H5" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="I5" s="33" t="s">
-        <v>208</v>
-      </c>
       <c r="J5" s="33" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K5" s="16" t="s">
         <v>40</v>
@@ -1918,7 +1914,7 @@
         <v>41</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="100.8" x14ac:dyDescent="0.3">
@@ -1960,7 +1956,7 @@
         <v>41</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="129.6" x14ac:dyDescent="0.3">
@@ -1987,7 +1983,7 @@
         <v>61</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I7" s="33" t="s">
         <v>62</v>
@@ -2002,7 +1998,7 @@
         <v>41</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="158.4" x14ac:dyDescent="0.3">
@@ -2029,7 +2025,7 @@
         <v>65</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="I8" s="33" t="s">
         <v>66</v>
@@ -2044,7 +2040,7 @@
         <v>41</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="158.4" x14ac:dyDescent="0.3">
@@ -2071,7 +2067,7 @@
         <v>69</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="I9" s="33" t="s">
         <v>70</v>
@@ -2086,7 +2082,7 @@
         <v>41</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="72" x14ac:dyDescent="0.3">
@@ -2113,7 +2109,7 @@
         <v>75</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="I10" s="33" t="s">
         <v>76</v>
@@ -2128,7 +2124,7 @@
         <v>41</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="172.8" x14ac:dyDescent="0.3">
@@ -2146,22 +2142,22 @@
         <v>20010</v>
       </c>
       <c r="E11" s="45" t="s">
+        <v>207</v>
+      </c>
+      <c r="F11" s="46" t="s">
+        <v>208</v>
+      </c>
+      <c r="G11" s="33" t="s">
         <v>209</v>
       </c>
-      <c r="F11" s="46" t="s">
+      <c r="H11" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="G11" s="33" t="s">
+      <c r="I11" s="33" t="s">
         <v>211</v>
       </c>
-      <c r="H11" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="I11" s="33" t="s">
-        <v>213</v>
-      </c>
       <c r="J11" s="33" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K11" s="16" t="s">
         <v>40</v>
@@ -2170,7 +2166,7 @@
         <v>41</v>
       </c>
       <c r="M11" s="9" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="115.2" x14ac:dyDescent="0.3">
@@ -2197,7 +2193,7 @@
         <v>81</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="I12" s="33" t="s">
         <v>82</v>
@@ -2212,7 +2208,7 @@
         <v>41</v>
       </c>
       <c r="M12" s="9" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="115.2" x14ac:dyDescent="0.3">
@@ -2239,7 +2235,7 @@
         <v>85</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I13" s="33" t="s">
         <v>86</v>
@@ -2254,7 +2250,7 @@
         <v>41</v>
       </c>
       <c r="M13" s="9" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="144" x14ac:dyDescent="0.3">
@@ -2281,7 +2277,7 @@
         <v>89</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="I14" s="33" t="s">
         <v>90</v>
@@ -2296,7 +2292,7 @@
         <v>41</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="86.4" x14ac:dyDescent="0.3">
@@ -2323,7 +2319,7 @@
         <v>96</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I15" s="42" t="s">
         <v>97</v>
@@ -2338,7 +2334,7 @@
         <v>41</v>
       </c>
       <c r="M15" s="9" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="86.4" x14ac:dyDescent="0.3">
@@ -2365,7 +2361,7 @@
         <v>102</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I16" s="42" t="s">
         <v>103</v>
@@ -2380,7 +2376,7 @@
         <v>41</v>
       </c>
       <c r="M16" s="9" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="172.8" x14ac:dyDescent="0.3">
@@ -2407,7 +2403,7 @@
         <v>107</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I17" s="42" t="s">
         <v>108</v>
@@ -2422,7 +2418,7 @@
         <v>41</v>
       </c>
       <c r="M17" s="9" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="172.8" x14ac:dyDescent="0.3">
@@ -2449,7 +2445,7 @@
         <v>113</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I18" s="42" t="s">
         <v>108</v>
@@ -2488,7 +2484,7 @@
         <v>115</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="I19" s="42" t="s">
         <v>116</v>
@@ -2527,7 +2523,7 @@
         <v>119</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="I20" s="42" t="s">
         <v>120</v>
@@ -2542,7 +2538,7 @@
         <v>41</v>
       </c>
       <c r="M20" s="9" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="243.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2569,7 +2565,7 @@
         <v>123</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="I21" s="42" t="s">
         <v>124</v>
@@ -2584,7 +2580,7 @@
         <v>41</v>
       </c>
       <c r="M21" s="9" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="215.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2611,7 +2607,7 @@
         <v>127</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I22" s="42" t="s">
         <v>128</v>
@@ -2639,17 +2635,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" customWidth="true" width="13.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="9" width="19.6640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="48.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="20.5546875" collapsed="true"/>
+    <col min="1" max="2" width="13.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.6640625" style="9" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="48" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="20.5546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -2683,13 +2679,13 @@
         <v>20010</v>
       </c>
       <c r="D2" s="48" t="s">
+        <v>210</v>
+      </c>
+      <c r="E2" s="47" t="s">
         <v>212</v>
       </c>
-      <c r="E2" s="47" t="s">
-        <v>214</v>
-      </c>
       <c r="F2" s="47" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -2703,13 +2699,13 @@
         <v>20017</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E3" t="s">
         <v>133</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -2723,13 +2719,13 @@
         <v>20019</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E4" t="s">
         <v>133</v>
       </c>
       <c r="F4" s="38" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -2743,13 +2739,13 @@
         <v>20018</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E5" t="s">
         <v>133</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -2763,7 +2759,7 @@
         <v>20018</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E6" t="s">
         <v>134</v>
@@ -2787,16 +2783,16 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="9" width="50.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="9" width="21.88671875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="9" width="17.5546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="10" width="47.44140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="34" width="77.109375" collapsed="true"/>
+    <col min="1" max="1" width="50" style="9" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21.88671875" style="9" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.5546875" style="9" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="47.44140625" style="10" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="77.109375" style="34" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -2945,17 +2941,17 @@
   <dimension ref="A1:BI4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="9" width="10.109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="15.5546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="10" width="76.6640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="31.6640625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="9" width="40.109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="29.44140625" collapsed="true"/>
+    <col min="1" max="1" width="10.109375" style="9" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.5546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="76.6640625" style="10" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="31.6640625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="40.109375" style="9" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="29.44140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:61" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3041,13 +3037,13 @@
         <v>141</v>
       </c>
       <c r="C2" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="D2" s="31" t="s">
         <v>162</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="E2" s="37" t="s">
         <v>163</v>
-      </c>
-      <c r="E2" s="37" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:61" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -3058,13 +3054,13 @@
         <v>146</v>
       </c>
       <c r="C3" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="D3" s="31" t="s">
         <v>165</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="E3" s="44" t="s">
         <v>166</v>
-      </c>
-      <c r="E3" s="44" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:61" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3075,13 +3071,13 @@
         <v>150</v>
       </c>
       <c r="C4" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="D4" s="31" t="s">
         <v>168</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="E4" s="37" t="s">
         <v>169</v>
-      </c>
-      <c r="E4" s="37" t="s">
-        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -3091,7 +3087,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
@@ -3099,118 +3095,118 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="41.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="40.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="19.44140625" collapsed="true"/>
+    <col min="1" max="1" width="41.88671875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="40" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.44140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>181</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
+      <c r="B4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>183</v>
       </c>
-      <c r="B2" t="n">
-        <v>50.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>215</v>
-      </c>
-      <c r="B3" t="n">
-        <v>99.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
+      <c r="B5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>184</v>
       </c>
-      <c r="B4" t="n">
-        <v>100.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
+      <c r="B6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>185</v>
       </c>
-      <c r="B5" t="n">
-        <v>100.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
+      <c r="B7">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>186</v>
       </c>
-      <c r="B6" t="n">
-        <v>200.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>187</v>
-      </c>
-      <c r="B7" t="n">
-        <v>300.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>188</v>
-      </c>
-      <c r="B8" t="n">
-        <v>1180.0</v>
+      <c r="B8">
+        <v>1180</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="33">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>

--- a/Automation-Framework-BookMyShow/ExecutionFiles/Run/BookMyShow.xlsx
+++ b/Automation-Framework-BookMyShow/ExecutionFiles/Run/BookMyShow.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="220">
   <si>
     <t>ProjectName</t>
   </si>
@@ -1024,11 +1024,18 @@
     <t>To find all the sports activity in a city for coming weekend ,with lowest charges on Top.
 Display Name of the sports and Date .</t>
   </si>
+  <si>
+    <t>Weekly Chess Maha Muqabla</t>
+  </si>
+  <si>
+    <t>Active Club - Online Sports &amp; Physical Activities</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1582,10 +1589,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="37.44140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="83.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="37.44140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="83.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -1687,20 +1694,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="9" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.88671875" style="9" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.33203125" style="9" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="49.5546875" style="17" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="49.5546875" style="10" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="49.5546875" style="34" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="45.88671875" style="9" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="44.33203125" style="34" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="42.109375" style="34" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="19.88671875" style="17" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="24.109375" style="9" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="14.88671875" style="9" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="18.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="9" width="12.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="9" width="12.88671875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="9" width="14.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="17" width="49.5546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="10" width="49.5546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="34" width="49.5546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="9" width="45.88671875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="34" width="44.33203125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="34" width="42.109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="17" width="19.88671875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="9" width="24.109375" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="9" width="14.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="18.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
@@ -2641,11 +2648,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="13.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.6640625" style="9" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="48" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="20.5546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="9" width="19.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="48.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="20.5546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -2788,11 +2795,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="50" style="9" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21.88671875" style="9" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.5546875" style="9" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="47.44140625" style="10" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="77.109375" style="34" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="9" width="50.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="9" width="21.88671875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="9" width="17.5546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="10" width="47.44140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="34" width="77.109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -2946,12 +2953,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.109375" style="9" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.5546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="76.6640625" style="10" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="31.6640625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="40.109375" style="9" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="29.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="9" width="10.109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="15.5546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="10" width="76.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="31.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="9" width="40.109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="29.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:61" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3087,7 +3094,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
@@ -3095,9 +3102,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.88671875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="40" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="41.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="40.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="19.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -3108,60 +3115,60 @@
         <v>180</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2">
       <c r="A2" t="s">
         <v>181</v>
       </c>
-      <c r="B2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B2" t="n">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" t="s">
-        <v>213</v>
-      </c>
-      <c r="B3">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>182</v>
+      </c>
+      <c r="B3" t="n">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+      <c r="B4" t="n">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" t="s">
-        <v>183</v>
-      </c>
-      <c r="B5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>218</v>
+      </c>
+      <c r="B5" t="n">
+        <v>225.0</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" t="s">
-        <v>184</v>
-      </c>
-      <c r="B6">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+      <c r="B6" t="n">
+        <v>300.0</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" t="s">
-        <v>185</v>
-      </c>
-      <c r="B7">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>219</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1180.0</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" t="s">
         <v>186</v>
       </c>
-      <c r="B8">
-        <v>1180</v>
+      <c r="B8" t="n">
+        <v>1180.0</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
